--- a/Makslip-2081-1st/Markslip-(6 NM).xlsx
+++ b/Makslip-2081-1st/Markslip-(6 NM).xlsx
@@ -361,7 +361,7 @@
     <t>FM=</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
   <dimension ref="A1:BJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
